--- a/data.xlsx
+++ b/data.xlsx
@@ -822,6 +822,11 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -834,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2365,6 +2370,48 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-08-29 11:00:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>627,785</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>729,198</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>627,785</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2024-08-29 11:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -471,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -825,6 +825,16 @@
       <c r="M5" t="inlineStr">
         <is>
           <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
         </is>
       </c>
     </row>
@@ -839,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -856,8 +866,8 @@
     <col width="11.109375" customWidth="1" style="1" min="7" max="7"/>
     <col width="21" customWidth="1" style="1" min="8" max="8"/>
     <col width="10.6640625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="8.88671875" customWidth="1" style="1" min="10" max="46"/>
-    <col width="8.88671875" customWidth="1" style="1" min="47" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="1" min="10" max="47"/>
+    <col width="8.88671875" customWidth="1" style="1" min="48" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2409,6 +2419,48 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>2024-08-29 11:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-08-29 13:00:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>863,881</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>842,474</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>897,214</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2024-08-29 13:02:14</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -852,6 +852,16 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -864,7 +874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
@@ -2605,6 +2615,90 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-08-29 17:00:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>802,531</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>902,891</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>925,111</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2024-08-29 17:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-08-29 18:00:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1,678,608</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>356,734</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1,683,608</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2024-08-29 18:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -899,6 +899,41 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -911,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I46" sqref="A45:I46"/>
@@ -2820,7 +2855,270 @@
         </is>
       </c>
     </row>
-    <row r="46"/>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-08-30 01:00:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-08-30 01:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-08-30 02:00:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>593,602</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3,704,972</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>593,602</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2024-08-30 02:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-08-30 03:00:00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>142,700</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15,880</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>15,880</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2024-08-30 03:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-08-30 04:00:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>154,440</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34,010</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>34,010</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2024-08-30 04:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-08-30 05:00:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>79,860</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>142,387</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>142,387</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-08-30 05:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-08-30 06:00:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>34,507</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>262,114</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>34,507</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-08-30 06:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-08-30 07:00:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>343,715</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>319,290</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>346,715</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2024-08-30 07:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -934,6 +934,26 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,7 +966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I46" sqref="A45:I46"/>
@@ -3119,6 +3139,174 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-08-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1,332,186</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>531,075</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1,332,187</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2024-08-30 08:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-08-30 09:00:00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1,198,807</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1,392,357</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1,392,357</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-08-30 09:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-08-30 10:00:00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3,230,569</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>586,097</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>811,745</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2024-08-30 10:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-08-30 11:00:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>806,174</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>680,070</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>806,174</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2024-08-30 11:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -954,6 +954,66 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -966,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I46" sqref="A45:I46"/>
@@ -3307,6 +3367,510 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-08-30 12:00:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1,364,436</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>880,491</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1,371,706</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2024-08-30 12:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-08-30 13:00:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2,817,641</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>776,549</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>781,549</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2024-08-30 13:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-08-30 14:00:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,709,417</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1,804,015</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1,809,550</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-08-30 14:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-08-30 15:00:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1,202,174</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>438,790</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>438,790</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2024-08-30 15:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-08-30 16:00:00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>394,393</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>595,180</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>595,180</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2024-08-30 16:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-08-30 17:00:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>774,699</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>734,660</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>782,558</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2024-08-30 17:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-08-30 18:00:00</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>595,246</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>391,174</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>602,122</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2024-08-30 18:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-08-30 19:00:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1,461,495</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>776,638</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1,497,495</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2024-08-30 19:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-08-30 20:00:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>580,988</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>349,833</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>360,833</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2024-08-30 20:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-08-30 21:00:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>612,288</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1,720,056</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1,720,056</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2024-08-30 21:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-08-30 22:00:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,754,419</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>460,994</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1,754,420</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2024-08-30 22:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-08-30 23:00:00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2,113,687</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>141,930</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2,121,287</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2024-08-30 23:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
@@ -1015,6 +1015,18 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1026,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I46" sqref="A45:I46"/>
@@ -3871,6 +3883,48 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-08-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1,869,344</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>546,160</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>546,160</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2024-08-31 00:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1026,6 +1026,76 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,7 +1108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I46" sqref="A45:I46"/>
@@ -3925,6 +3995,594 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-08-31 01:00:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>353,197</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1,238,053</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1,262,887</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2024-08-31 01:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-08-31 02:00:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>151,933</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1,344,794</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>152,933</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2024-08-31 02:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-08-31 03:00:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1,452,751</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>68,661</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1,452,751</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2024-08-31 03:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-08-31 04:00:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>77,945</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>219,332</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>77,945</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2024-08-31 04:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-08-31 05:00:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>122,832</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>399,515</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>399,515</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2024-08-31 05:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-08-31 06:00:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>123,094</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>613,553</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>613,553</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2024-08-31 06:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-08-31 07:00:00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>772,880</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>417,314</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>417,314</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2024-08-31 07:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-08-31 08:00:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>255,955</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>719,352</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>719,352</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2024-08-31 08:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-08-31 09:00:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>642,781</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>583,116</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>596,618</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2024-08-31 09:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-08-31 10:00:00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>996,762</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>297,691</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>297,691</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2024-08-31 10:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-08-31 11:00:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1,529,923</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>270,581</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,529,923</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2024-08-31 11:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-08-31 12:00:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1,679,838</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>460,989</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>610,989</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2024-08-31 12:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-08-31 13:00:00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>919,760</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>803,260</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>827,422</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2024-08-31 13:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-08-31 14:00:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1,875,776</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1,122,536</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1,875,776</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2024-08-31 14:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1096,6 +1096,31 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1108,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I46" sqref="A45:I46"/>
@@ -4583,6 +4608,192 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-08-31 15:00:00</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1,473,787</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>473,297</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1,473,857</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2024-08-31 15:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-08-31 16:00:00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>887,470</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>803,258</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>803,258</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2024-08-31 16:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-08-31 17:00:00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1,170,119</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3,539,045</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>3,639,045</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2024-08-31 17:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-08-31 18:00:00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>896,068</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>604,521</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>604,521</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2024-08-31 18:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-08-31 19:00:00</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2024-08-31 19:02:25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="KetQua" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DuLieu" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KetQua" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DuLieu" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1119,6 +1119,26 @@
       <c r="U7" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
         </is>
       </c>
     </row>
@@ -1133,10 +1153,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I46" sqref="A45:I46"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1150,8 +1170,8 @@
     <col width="11.109375" customWidth="1" style="1" min="7" max="7"/>
     <col width="21" customWidth="1" style="1" min="8" max="8"/>
     <col width="10.6640625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="8.88671875" customWidth="1" style="1" min="10" max="50"/>
-    <col width="8.88671875" customWidth="1" style="1" min="51" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="1" min="10" max="51"/>
+    <col width="8.88671875" customWidth="1" style="1" min="52" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4782,15 +4802,177 @@
           <t>2024-08-31 19:00:00</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>2024-08-31 19:02:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-08-31 20:00:00</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>596,604</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>735,698</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>596,604</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2024-08-31 20:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-08-31 21:00:00</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1,250,197</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>588,265</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1,250,197</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2024-08-31 21:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-08-31 22:00:00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>914,857</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>755,369</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>840,603</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2024-08-31 22:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-08-31 23:00:00</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1,535,842</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1,906,159</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2,046,159</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2024-08-31 23:02:12</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KetQua" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DuLieu" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="KetQua" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DuLieu" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
@@ -1142,6 +1142,78 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1153,7 +1225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -4976,6 +5048,552 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1,214,467</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>813,565</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1,214,467</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2024-09-01 00:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-09-01 01:00:00</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2,422,048</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>118,304</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>118,304</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2024-09-01 01:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-09-01 02:00:00</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>328,127</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>356,011</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>356,011</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2024-09-01 02:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-09-01 03:00:00</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>123,837</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>100,618</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>100,618</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2024-09-01 03:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-09-01 04:00:00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>161,715</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>156,222</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>161,715</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2024-09-01 04:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-09-01 05:00:00</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>738,515</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84,600</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>738,515</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2024-09-01 05:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-09-01 06:00:00</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>361,032</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>256,409</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>361,032</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2024-09-01 06:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-09-01 07:00:00</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>166,506</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>560,173</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>166,506</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2024-09-01 07:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-09-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>272,040</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>279,312</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>279,312</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2024-09-01 08:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-09-01 09:00:00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>416,280</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>706,993</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>416,280</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2024-09-01 09:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-09-01 10:00:00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>455,357</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>758,277</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>758,277</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2024-09-01 10:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-09-01 11:00:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1,823,242</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>604,929</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1,823,242</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2024-09-01 11:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-09-01 12:00:00</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>859,439</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1,597,008</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1,597,008</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2024-09-01 12:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1213,6 +1213,26 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -5594,6 +5614,174 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-09-01 13:00:00</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>785,140</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>841,687</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>785,140</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2024-09-01 13:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-09-01 14:00:00</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>546,913</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>667,594</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>546,913</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2024-09-01 14:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-09-01 15:00:00</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1,077,441</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1,194,309</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1,194,309</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2024-09-01 15:02:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-09-01 16:00:00</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>542,054</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1,131,881</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1,131,881</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2024-09-01 16:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1233,6 +1233,41 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -5782,6 +5817,300 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-09-01 17:00:00</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1,040,959</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1,426,381</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1,426,381</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2024-09-01 17:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-09-01 18:00:00</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>353,389</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1,091,386</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>353,389</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2024-09-01 18:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-09-01 19:00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1,191,000</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>490,682</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1,191,000</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2024-09-01 19:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-09-01 20:00:00</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>471,478</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>991,936</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>991,936</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2024-09-01 20:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-09-01 21:00:00</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>478,115</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1,198,951</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1,198,951</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2024-09-01 21:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-09-01 22:00:00</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>319,692</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>873,072</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>319,692</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2024-09-01 22:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-09-01 23:00:00</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1,368,425</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>809,173</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1,368,425</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2024-09-01 23:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
@@ -1269,6 +1269,53 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1280,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -6111,6 +6158,342 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-09-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>670,353</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>294,012</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1,368,425</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2024-09-02 00:02:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-09-02 01:00:00</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>685,038</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1,057,880</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>685,038</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2024-09-02 01:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-09-02 02:00:00</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1,167,894</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>419,114</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>419,114</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2024-09-02 02:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-09-02 03:00:00</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>132,972</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>339,057</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>132,972</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2024-09-02 03:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-09-02 04:00:00</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>246,799</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>395,872</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>395,872</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2024-09-02 04:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-09-02 05:00:00</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>462,542</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>60,001</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>60,001</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2024-09-02 05:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-09-02 06:00:00</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>54,697</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>553,170</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>553,170</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2024-09-02 06:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-09-02 07:00:00</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>62,972</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>401,189</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>62,972</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2024-09-02 07:02:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1315,6 +1315,61 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1327,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -6494,6 +6549,468 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-09-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1,695,249</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>125,831</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1,695,249</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2024-09-02 08:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-09-02 09:00:00</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1,279,089</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1,303,343</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>1,279,089</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2024-09-02 09:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-09-02 10:00:00</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>408,994</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>419,842</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>408,994</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2024-09-02 10:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-09-02 11:00:00</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>861,627</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1,037,935</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1,037,935</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2024-09-02 11:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:00:00</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>565,025</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1,217,472</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1,217,472</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2024-09-02 12:02:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2024-09-02 13:00:00</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1,552,751</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>896,378</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1,552,751</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2024-09-02 13:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2024-09-02 14:00:00</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1,661,960</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>622,338</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1,661,960</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2024-09-02 14:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2024-09-02 15:00:00</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1,835,038</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>739,196</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>739,196</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2024-09-02 15:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2024-09-02 16:00:00</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>403,523</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2,483,773</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2,483,773</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2024-09-02 16:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-09-02 17:00:00</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1,167,086</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>495,774</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>495,774</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2024-09-02 17:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-09-02 18:00:00</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>173,183</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2,234,848</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2,234,848</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2024-09-02 18:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1370,6 +1370,21 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1382,7 +1397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -7011,6 +7026,132 @@
         </is>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-09-02 19:00:00</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2,135,447</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>586,935</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2,135,447</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2024-09-02 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-09-02 20:00:00</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1,901,838</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>5,097,507</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1,901,838</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2024-09-02 20:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-09-02 21:00:00</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>685,768</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1,929,374</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1,929,374</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2024-09-02 21:02:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1385,6 +1385,16 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1397,7 +1407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -7152,6 +7162,90 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-09-02 22:00:00</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>673,814</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2,960,782</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2,960,782</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2024-09-02 22:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-09-02 23:00:00</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1,693,719</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>493,261</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1,693,719</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2024-09-02 23:02:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
@@ -1396,6 +1396,73 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1407,7 +1474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -7246,6 +7313,510 @@
         </is>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-09-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3,582,361</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>308,875</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>3,582,361</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2024-09-03 00:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-09-03 01:00:00</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1,127,107</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>703,478</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>703,478</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2024-09-03 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-09-03 02:00:00</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>892,604</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2,887,892</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>892,604</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2024-09-03 02:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-09-03 03:00:00</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>813,403</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93,046</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>93,046</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2024-09-03 03:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-09-03 04:00:00</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>70,731</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>70,657</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>70,657</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2024-09-03 04:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-09-03 05:00:00</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>26,000</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>316,042</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>316,042</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2024-09-03 05:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-09-03 06:00:00</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>834,882</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>892,486</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>834,882</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2024-09-03 06:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:00:00</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>553,286</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>215,506</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>215,506</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2024-09-03 07:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>483,290</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>528,685</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>528,685</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-09-03 09:00:00</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>802,691</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>799,790</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>802,691</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2024-09-03 09:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:00:00</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1,206,292</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>229,904</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1,206,292</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2024-09-03 10:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-09-03 11:00:00</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>546,787</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1,185,479</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>546,787</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2024-09-03 11:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1462,6 +1462,51 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1474,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -7817,6 +7862,384 @@
         </is>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-09-03 12:00:00</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1,259,651</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1,052,857</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1,052,857</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2024-09-03 12:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-09-03 13:00:00</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>633,287</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1,344,260</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1,344,260</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2024-09-03 13:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-09-03 14:00:00</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>966,822</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>503,501</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>503,501</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2024-09-03 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-09-03 15:00:00</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1,101,411</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>540,590</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>540,590</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2024-09-03 15:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-09-03 16:00:00</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1,635,994</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>509,950</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1,635,994</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2024-09-03 16:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-09-03 17:00:00</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1,174,623</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>730,055</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1,174,623</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2024-09-03 17:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-09-03 18:00:00</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>877,673</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>704,609</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>877,673</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2024-09-03 18:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-09-03 19:00:00</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1,285,924</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>532,042</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1,285,924</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2024-09-03 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-09-03 20:00:00</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>675,764</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1,580,723</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1,580,723</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2024-09-03 20:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1507,6 +1507,16 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1519,7 +1529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -8240,6 +8250,90 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-09-03 21:00:00</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>200,095</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>3,122,706</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>3,122,706</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2024-09-03 21:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-09-03 22:00:00</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>880,414</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1,469,480</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>880,414</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2024-09-03 22:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1517,6 +1517,11 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1529,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -8334,6 +8339,48 @@
         </is>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-09-03 23:00:00</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3,658,464</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>251,036</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>251,036</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2024-09-03 23:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
@@ -1523,6 +1523,58 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1534,7 +1586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -8381,6 +8433,384 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-09-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1,122,045</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>576,081</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1,122,045</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2024-09-04 00:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-09-04 01:00:00</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>810,687</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1,204,931</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1,204,931</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2024-09-04 01:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-09-04 02:00:00</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>609,693</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>442,694</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>609,693</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2024-09-04 02:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-09-04 03:00:00</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>211,189</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>202,619</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>211,189</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2024-09-04 03:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-09-04 04:00:00</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>59,667</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>66,000</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>66,000</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2024-09-04 04:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-09-04 05:00:00</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>191,591</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>191,591</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2024-09-04 05:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-09-04 06:00:00</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>618,612</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>176,693</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>618,612</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2024-09-04 06:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-09-04 07:00:00</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>826,792</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>112,712</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>112,712</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2024-09-04 07:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-09-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>356,340</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1,003,563</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>356,340</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2024-09-04 08:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1574,6 +1574,71 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1586,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -8811,6 +8876,552 @@
         </is>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-09-04 09:00:00</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>323,077</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1,428,942</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>323,077</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2024-09-04 09:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>653,095</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>957,293</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>957,293</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-09-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>343,715</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2,486,594</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2,486,594</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2024-09-04 11:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-09-04 12:00:00</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2,110,514</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>945,740</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2,110,514</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2024-09-04 12:02:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-09-04 13:00:00</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2,222,326</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>305,278</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>305,278</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2024-09-04 13:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-09-04 14:00:00</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1,749,223</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1,487,588</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1,487,588</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2024-09-04 14:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-09-04 15:00:00</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>935,714</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>442,031</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>442,031</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2024-09-04 15:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-09-04 16:00:00</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>666,420</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>988,498</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>988,498</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2024-09-04 16:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1,716,951</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1,242,400</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1,242,400</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-09-04 18:00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1,457,413</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>949,343</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>949,343</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2024-09-04 18:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-09-04 19:00:00</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1,757,251</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>905,725</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1,757,251</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2024-09-04 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-09-04 20:00:00</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>784,724</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2,540,604</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>784,724</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2024-09-04 20:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-09-04 21:00:00</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>732,508</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1,326,089</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>732,508</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2024-09-04 21:02:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1551,17 +1551,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Ma - Lớn</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ma - Lớn</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Tiên - Lớn</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1651,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -9422,6 +9422,216 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-09-05 01:00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>266,091</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2024-09-05 01:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>728,199</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:05:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>94,551</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>276,500</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>94,551</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2024-09-05 04:04:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>344,241</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>394,157</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>445,157</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2024-09-05 06:06:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>658,595</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>369,856</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>369,856</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2024-09-05 07:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1571,57 +1571,57 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Tiên - Nhỏ</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>Ma - Lớn</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Ma - Lớn</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Tiên - Lớn</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Ma - Lớn</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1651,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -9632,6 +9632,510 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-09-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>551,207</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>130,374</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>130,374</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2024-09-05 08:02:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1,785,487</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1,573,688</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1,809,487</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2024-09-05 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1,205,288</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>30,800</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1,809,487</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2024-09-05 09:11:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2,459,526</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1,215,804</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2,459,526</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1,385,024</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>513,072</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>513,072</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2024-09-05 11:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-09-05 12:00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>386,856</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2,839,151</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2,839,151</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2024-09-05 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-09-05 13:00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2,889,438</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>957,980</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>957,980</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2024-09-05 13:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>981,717</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1,304,757</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1,304,757</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2024-09-05 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-09-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>879,926</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>3,317,350</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>3,317,350</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2024-09-05 15:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-09-05 16:00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>660,850</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1,800,266</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>660,850</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2024-09-05 16:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-09-05 17:00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2,910,707</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1,330,127</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1,330,127</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2024-09-05 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-09-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>482,409</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1,580,859</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1,580,859</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2024-09-05 18:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="V20" sqref="V20"/>
@@ -1639,6 +1639,63 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,7 +1708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -10262,6 +10319,426 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-09-05 22:00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>402,102</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1,058,238</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>1,058,238</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2024-09-05 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-09-05 23:00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1,886,410</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>3,225,659</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>1,886,410</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2024-09-05 23:02:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-09-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1,465,134</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2,061,217</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2,061,217</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2024-09-06 00:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-09-06 01:00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>3,309,606</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>483,795</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>3,309,606</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2024-09-06 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024-09-06 02:00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>251,881</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1,328,499</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>1,328,499</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2024-09-06 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024-09-06 03:00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1,107,000</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>89,000</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>89,000</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2024-09-06 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024-09-06 04:00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>220,346</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>97,063</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>97,063</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2024-09-06 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024-09-06 05:00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>85,000</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>104,062</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>85,000</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2024-09-06 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024-09-06 06:00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1,516,926</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>1,516,926</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2024-09-06 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2024-09-06 07:00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1,602,064</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>237,793</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>237,793</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2024-09-06 07:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1696,6 +1696,36 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1708,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -10739,6 +10769,258 @@
         </is>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-09-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>52,412</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1,624,127</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>52,412</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2024-09-06 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-09-06 09:00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1,461,307</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>512,069</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>1,461,307</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2024-09-06 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-09-06 10:00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>987,251</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2,079,210</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2,079,210</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2024-09-06 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-09-06 11:00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2,446,780</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2,152,839</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2,446,780</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2024-09-06 11:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>3,244,593</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1,660,995</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>3,244,593</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-09-06 13:00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>3,107,881</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>571,923</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>3,107,881</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2024-09-06 13:02:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1726,6 +1726,11 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1738,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -11021,6 +11026,48 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-09-06 14:00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1,924,897</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2,601,236</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>1,924,897</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2024-09-06 14:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1846,6 +1846,61 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1858,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -11603,6 +11658,468 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-09-07 01:00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>3,725,286</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1,612,950</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>3,725,286</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2024-09-07 01:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-09-07 02:00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1,844,587</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1,543,397</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>1,844,587</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2024-09-07 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-09-07 03:00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>201,559</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>4,170,379</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>4,170,379</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2024-09-07 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-09-07 04:00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>71,963</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2,768,149</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2,768,149</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2024-09-07 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-09-07 05:00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>167,300</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>637,605</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>167,300</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2024-09-07 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-09-07 06:00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>638,920</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>151,000</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>151,000</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2024-09-07 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-09-07 07:00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>296,050</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>911,103</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>296,050</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2024-09-07 07:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-09-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>245,861</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1,512,175</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>245,861</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2024-09-07 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-09-07 09:00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>664,174</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1,573,251</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>664,174</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2024-09-07 09:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-09-07 10:00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1,613,550</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>314,562</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>314,562</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2024-09-07 10:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2024-09-07 11:00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>760,477</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2,190,980</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>760,477</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2024-09-07 11:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1901,6 +1901,46 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1913,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -12120,6 +12160,342 @@
         </is>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-09-07 12:00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2,876,181</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1,260,524</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1,260,524</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2024-09-07 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-09-07 13:00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4,043,193</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>1,439,934</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>1,439,934</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2024-09-07 13:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>417,677</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>3,076,675</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>417,677</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-09-07 15:00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2,512,126</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>343,670</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>343,670</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2024-09-07 15:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-09-07 16:00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2,928,203</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>583,262</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2,928,203</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2024-09-07 16:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2024-09-07 17:00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>446,357</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2,965,913</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>446,357</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2024-09-07 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-09-07 18:00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>821,370</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>488,496</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>488,496</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2024-09-07 18:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2024-09-07 19:00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1,467,169</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>479,390</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>479,390</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2024-09-07 19:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1848,95 +1848,110 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>Tiên - Lớn</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tiên - Lớn</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>Ma - Lớn</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Ma - Lớn</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Tiên - Nhỏ</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Ma - Nhỏ</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Tiên - Nhỏ</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Tiên - Nhỏ</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Tiên - Nhỏ</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Tiên - Nhỏ</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Tiên - Nhỏ</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Tiên - Lớn</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Tiên - Nhỏ</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Ma - Nhỏ</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>Ma - Nhỏ</t>
         </is>
@@ -1953,7 +1968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -12496,6 +12511,216 @@
         </is>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2024-09-07 20:00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>211,501</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>457,310</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>457,310</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2024-09-07 20:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-09-07 21:00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>871,028</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>258,811</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>258,811</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2024-09-07 21:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-09-07 22:00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>473,623</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>169,007</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>169,007</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2024-09-07 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024-09-08 01:00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>427,974</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>1,208,978</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>1,208,978</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2024-09-08 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>1,108,677</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="KetQua" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DuLieu" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KetQua" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DuLieu" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -1957,6 +1957,18 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1968,7 +1980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -12721,6 +12733,132 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>1,108,677</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>1,108,677</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>607,361</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>303,430</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:34:55</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KetQua" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DuLieu" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="KetQua" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DuLieu" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -1968,6 +1968,168 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1980,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -12859,6 +13021,1350 @@
         </is>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>702,296</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>306,504</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:46:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2024-09-08 03:00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>881,184</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>356,846</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>881,184</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2024-09-08 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2024-09-08 04:00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>665,975</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>210,698</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>665,975</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2024-09-08 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2024-09-08 05:00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>440,790</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>62,300</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>440,790</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2024-09-08 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2024-09-08 06:00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>31,881</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>85,576</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>31,881</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2024-09-08 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2024-09-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>97,410</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>185,640</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>185,640</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2024-09-08 07:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2024-09-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>365,126</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1,037,308</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>365,126</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2024-09-08 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2024-09-08 09:00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2,295,977</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>248,626</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>248,626</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2024-09-08 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2024-09-08 10:00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2,256,001</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>252,744</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2,256,001</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2024-09-08 10:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-09-08 11:00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>1,033,250</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>1,010,081</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>1,010,081</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2024-09-08 11:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-09-08 12:00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>684,481</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>642,130</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>684,481</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2024-09-08 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-09-08 13:00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1,515,295</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>1,039,601</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>1,515,295</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2024-09-08 13:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-09-08 14:00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>970,891</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>1,689,831</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>1,689,831</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2024-09-08 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-09-08 15:00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1,319,756</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>1,633,749</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>1,633,749</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2024-09-08 15:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-09-08 16:00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>627,001</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>1,104,013</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>627,001</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2024-09-08 16:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-09-08 17:00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1,744,520</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>639,335</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>639,335</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2024-09-08 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-09-08 18:00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2,340,264</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>1,997,031</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>1,997,031</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2024-09-08 18:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2024-09-08 19:00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>921,100</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>1,245,706</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>1,245,706</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2024-09-08 19:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2024-09-08 20:00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>648,109</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>2,538,206</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>648,109</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2024-09-08 20:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-09-08 21:00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>869,667</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>494,813</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>494,813</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2024-09-08 21:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-09-08 22:00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>1,649,716</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>1,095,950</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>1,649,716</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2024-09-08 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-09-08 23:00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>1,458,198</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>571,658</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>1,458,198</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2024-09-08 23:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-09-09 01:00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>51,100</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>434,166</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>51,100</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2024-09-09 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-09-09 02:00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>542,642</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>264,385</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>264,385</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2024-09-09 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-09-09 03:00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>56,250</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>123,460</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>123,460</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2024-09-09 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2024-09-09 04:00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>53,065</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>104,149</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>53,065</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>2024-09-09 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2024-09-09 05:00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>211,425</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>10,200</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>211,425</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>2024-09-09 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2024-09-09 06:00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>579,864</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>192,736</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>192,736</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>2024-09-09 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-09-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>219,654</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>909,370</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>909,370</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>2024-09-09 07:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2024-09-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>431,674</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>222,670</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>222,670</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>2024-09-09 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-09-09 09:00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>351,113</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>489,500</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>489,500</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>2024-09-09 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-09-09 10:00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>466,953</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>544,376</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>466,953</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>2024-09-09 10:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -2130,6 +2130,143 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2142,7 +2279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -14365,6 +14502,1098 @@
         </is>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-09-09 11:00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>1,243,907</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>508,094</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>1,243,907</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>2024-09-09 11:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-09-09 12:00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2,581,970</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>1,125,314</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2,581,970</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>2024-09-09 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-09-09 13:00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>1,943,436</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>1,436,497</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>1,943,436</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>2024-09-09 13:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-09-09 14:00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>824,092</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>775,011</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>775,011</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>2024-09-09 14:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-09-09 15:00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>793,892</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>1,144,836</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>775,011</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>2024-09-09 15:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-09-09 16:00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>448,646</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>1,701,341</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>448,646</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2024-09-09 16:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-09-09 17:00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>1,911,564</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2,874,676</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2,874,676</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>2024-09-09 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-09-09 18:00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>1,028,350</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>771,268</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>771,268</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>2024-09-09 18:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-09-09 19:00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>1,636,975</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>1,438,174</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>1,438,174</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>2024-09-09 19:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-09-09 20:00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>1,851,997</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>963,043</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>1,851,997</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>2024-09-09 20:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-09-09 21:00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>1,184,395</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>2,388,609</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2,388,609</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>2024-09-09 21:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-09-09 22:00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>3,058,526</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>655,060</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>3,058,526</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>2024-09-09 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-09-09 23:00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>675,480</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>3,004,905</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>675,480</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>2024-09-09 23:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-09-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>688,416</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>534,837</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>688,416</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>2024-09-10 00:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-09-10 01:00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>224,277</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>402,299</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>402,299</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>2024-09-10 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-09-10 02:00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>374,822</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>1,388,992</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>1,388,992</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>2024-09-10 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-09-10 03:00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>329,000</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>9,700</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>9,700</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>2024-09-10 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-09-10 04:00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>135,251</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>29,000</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>29,000</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>2024-09-10 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-09-10 05:00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>487,000</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>113,020</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>113,020</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>2024-09-10 05:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>186,115</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>125,150</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>186,115</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-09-10 07:00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>904,540</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>253,146</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>253,146</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>2024-09-10 07:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>395,720</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>371,981</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>371,981</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>417,836</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>564,627</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>564,627</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>542,972</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>292,680</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>542,972</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>2024-09-10 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>836,535</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>581,707</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>836,535</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>2024-09-10 11:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>1,305,219</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>663,510</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>1,305,219</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>2024-09-10 12:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2267,6 +2267,21 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2279,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -15594,6 +15609,132 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>952,037</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>386,134</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>952,037</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>2024-09-10 13:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>1,793,691</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>743,692</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>1,793,691</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>2024-09-10 14:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>490,277</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>619,633</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>619,633</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>2024-09-10 15:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2282,6 +2282,11 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H321"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -15735,6 +15740,48 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>320,000</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>276,626</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>320,000</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2024-09-10 16:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2287,6 +2287,41 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2299,7 +2334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H329"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -15782,6 +15817,300 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>836,937</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>169,214</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>169,214</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>2024-09-10 17:02:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>1,112,725</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>403,614</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>403,614</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>410,839</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>1,114,596</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>1,114,596</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>2024-09-10 19:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-09-10 20:00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>722,114</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>1,979,493</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>1,979,493</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>2024-09-10 20:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2024-09-10 21:00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>3,422,476</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>1,134,462</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>1,134,462</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>2024-09-10 21:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2024-09-10 22:00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>2,218,046</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>1,782,448</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>1,782,448</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>2024-09-10 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2024-09-10 23:00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>2,636,924</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>695,757</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>2,636,924</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>2024-09-10 23:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -2323,6 +2323,73 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2334,7 +2401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H329"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -16111,6 +16178,510 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-09-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>1,533,425</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>783,109</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>1,533,425</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>2024-09-11 00:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-09-11 01:00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>958,623</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>805,017</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>805,017</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>2024-09-11 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-09-11 02:00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>252,020</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>483,688</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>483,688</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>2024-09-11 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-09-11 03:00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>200,878</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>110,445</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>110,445</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>2024-09-11 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2024-09-11 04:00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>136,011</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>585,492</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>585,492</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>2024-09-11 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2024-09-11 05:00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>150,984</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>126,299</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>126,299</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>2024-09-11 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-09-11 06:00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>365,905</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>157,341</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>157,341</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>2024-09-11 06:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-09-11 07:00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>628,739</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>288,412</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>628,739</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>2024-09-11 07:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-09-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>718,333</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>384,887</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>384,887</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>2024-09-11 08:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>477,794</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>765,787</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>765,787</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2024-09-11 10:00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>816,653</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>473,016</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>816,653</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>2024-09-11 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-09-11 11:00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>1,643,559</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>83,698</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>83,698</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>2024-09-11 11:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2389,6 +2389,41 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2401,7 +2436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -16682,6 +16717,300 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-09-11 12:00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>867,812</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>1,670,890</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>867,812</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>2024-09-11 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-09-11 13:00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>1,027,455</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>2,808,034</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>2,808,034</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>2024-09-11 13:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-09-11 14:00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>1,905,389</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>403,061</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>403,061</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>2024-09-11 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2024-09-11 15:00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>986,532</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>886,247</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>886,247</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>2024-09-11 15:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2024-09-11 16:00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>633,224</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>813,168</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>813,168</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>2024-09-11 16:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2024-09-11 17:00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>1,110,840</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>483,753</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>483,753</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>2024-09-11 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2024-09-11 18:00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>1,133,481</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>340,724</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>1,133,481</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>2024-09-11 18:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2424,6 +2424,16 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H348"/>
+  <dimension ref="A1:H350"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -17011,6 +17021,90 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2024-09-11 19:00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2,102,781</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>726,469</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>726,469</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>2024-09-11 19:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2024-09-11 20:00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>1,335,442</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>1,422,179</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>1,422,179</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>2024-09-11 20:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -2434,6 +2434,73 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,7 +2513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H350"/>
+  <dimension ref="A1:H362"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -17105,6 +17172,510 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2024-09-11 21:00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>461,549</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>1,087,923</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>461,549</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2024-09-11 21:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2024-09-11 22:00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>1,581,715</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>1,522,963</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>1,581,715</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>2024-09-11 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2024-09-11 23:00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>1,142,899</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>611,892</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>1,142,899</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>2024-09-11 23:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2024-09-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>835,808</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>793,425</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>835,808</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2024-09-12 00:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2024-09-12 01:00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>418,116</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>201,071</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>418,116</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2024-09-12 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2024-09-12 02:00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>153,262</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>292,576</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>292,576</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2024-09-12 02:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2024-09-12 03:00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>110,673</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>142,474</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>110,673</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2024-09-12 03:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2024-09-12 04:00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>309,481</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2024-09-12 04:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2024-09-12 05:00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>34,398</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>67,000</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>67,000</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2024-09-12 05:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-09-12 06:00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>628,309</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>136,000</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>136,000</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2024-09-12 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-09-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>293,506</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>689,678</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>293,506</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2024-09-12 07:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-09-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>1,235,867</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>179,102</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>1,235,867</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2024-09-12 08:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2501,6 +2501,26 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2513,7 +2533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -17676,6 +17696,174 @@
         </is>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-09-12 09:00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>1,085,691</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>279,603</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>279,603</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2024-09-12 09:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2024-09-12 10:00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>231,897</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>1,529,589</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>231,897</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2024-09-12 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2024-09-12 11:00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>1,014,784</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>384,351</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>384,351</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2024-09-12 11:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2024-09-12 12:00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>552,061</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>370,961</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>370,961</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2024-09-12 12:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2521,6 +2521,46 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2533,7 +2573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H366"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -17864,6 +17904,342 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>367,005</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>725,224</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>367,005</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-09-12 14:00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>701,702</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>277,895</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>277,895</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2024-09-12 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-09-12 15:00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>377,823</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>753,869</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>753,869</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2024-09-12 15:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-09-12 16:00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>490,016</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>560,710</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>490,016</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2024-09-12 16:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2024-09-12 17:00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>1,673,269</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>1,110,088</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>1,673,269</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2024-09-12 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2024-09-12 18:00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>1,225,501</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2,464,128</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>1,225,501</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2024-09-12 18:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2024-09-12 19:00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>2,838,966</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>656,933</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>656,933</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2024-09-12 19:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2024-09-12 20:00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>496,952</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2,097,541</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>496,952</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2024-09-12 20:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -2561,6 +2561,68 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2573,7 +2635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -18240,6 +18302,468 @@
         </is>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2024-09-12 21:00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>394,885</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>914,706</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>914,706</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2024-09-12 21:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2024-09-12 22:00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>1,147,034</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>272,810</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>1,147,034</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>2024-09-12 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2024-09-12 23:00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>1,496,554</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>732,994</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>1,496,554</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>2024-09-12 23:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2024-09-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>452,259</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>478,324</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>478,324</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>2024-09-13 00:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2024-09-13 01:00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>318,150</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>2,570,439</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>318,150</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2024-09-13 01:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2024-09-13 02:00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>429,860</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>243,400</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>429,860</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2024-09-13 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2024-09-13 03:00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>191,606</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>51,140</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>51,140</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2024-09-13 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2024-09-13 04:00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>118,667</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>146,046</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>146,046</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>2024-09-13 04:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2024-09-13 05:00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>46,333</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>324,900</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>46,333</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>2024-09-13 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2024-09-13 06:00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>341,384</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>112,725</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>341,384</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>2024-09-13 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2024-09-13 07:00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>209,739</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>311,158</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>311,158</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>2024-09-13 07:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2623,6 +2623,61 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2635,7 +2690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H396"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -18764,6 +18819,468 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2024-09-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>314,902</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>1,178,320</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>1,178,320</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>2024-09-13 08:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2024-09-13 09:00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>527,998</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>201,133</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>201,133</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2024-09-13 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2024-09-13 10:00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>412,138</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>447,017</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>447,017</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>2024-09-13 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2024-09-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>394,123</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>1,978,390</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>394,123</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>2024-09-13 11:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2024-09-13 12:00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>642,711</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>250,705</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>250,705</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>2024-09-13 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2024-09-13 13:00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>1,473,772</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>920,390</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>1,473,772</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2024-09-13 13:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2024-09-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2,841,235</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>1,526,100</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>1,526,100</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>2024-09-13 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2024-09-13 15:00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>1,329,364</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>327,519</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>1,329,364</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2024-09-13 15:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2024-09-13 16:00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>1,839,354</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>701,390</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>1,839,354</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2024-09-13 16:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2024-09-13 17:00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>434,061</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>534,768</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>434,061</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2024-09-13 17:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2024-09-13 18:00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>2,308,546</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>275,526</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>2,308,546</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2024-09-13 18:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2678,6 +2678,16 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2690,7 +2700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H396"/>
+  <dimension ref="A1:H398"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -19281,6 +19291,90 @@
         </is>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2024-09-13 19:00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>1,000,364</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>703,109</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>1,000,364</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2024-09-13 19:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2024-09-13 20:00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2,257,648</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>1,476,462</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>1,476,462</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>2024-09-13 20:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -2688,6 +2688,128 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2700,7 +2822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:H421"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -19375,6 +19497,972 @@
         </is>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2024-09-13 21:00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>339,694</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>1,507,239</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>339,694</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>2024-09-13 21:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2024-09-13 22:00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>725,273</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>1,172,416</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>1,172,416</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>2024-09-13 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2024-09-13 23:00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>795,092</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>1,039,873</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>1,039,873</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>2024-09-13 23:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2024-09-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>1,317,156</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>1,326,185</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>1,317,156</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>2024-09-14 00:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-09-14 01:00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>298,204</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>1,027,511</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>1,027,511</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>2024-09-14 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-09-14 02:00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>190,894</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>1,675,518</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>1,675,518</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>2024-09-14 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-09-14 03:00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>24,834</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>397,705</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>397,705</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>2024-09-14 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2024-09-14 04:00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>112,452</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>112,452</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>2024-09-14 04:03:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2024-09-14 05:00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>177,827</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>85,960</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>177,827</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>2024-09-14 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2024-09-14 06:00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>96,986</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>144,113</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>144,113</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>2024-09-14 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2024-09-14 07:00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>900,498</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>561,546</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>900,498</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>2024-09-14 07:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2024-09-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>507,281</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>1,268,167</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>1,268,167</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2024-09-14 08:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2024-09-14 09:00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>1,234,009</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>493,434</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>493,434</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>2024-09-14 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2024-09-14 10:00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>997,525</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>478,426</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>997,525</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>2024-09-14 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2024-09-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>903,848</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>772,908</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>903,848</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>2024-09-14 11:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-09-14 12:00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>1,397,835</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>669,510</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>1,397,835</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>2024-09-14 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-09-14 13:00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>2,146,235</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>726,726</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>726,726</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>2024-09-14 13:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-09-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>639,622</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>611,193</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>611,193</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>2024-09-14 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-09-14 15:00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>1,134,476</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>853,306</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>1,134,476</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>2024-09-14 15:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-09-14 16:00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>1,035,435</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>1,443,756</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>1,443,756</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>2024-09-14 16:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2024-09-14 17:00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>1,195,605</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>326,772</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>1,195,605</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>2024-09-14 17:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2024-09-14 18:00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>1,971,384</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>747,565</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>1,971,384</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>2024-09-14 18:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2024-09-14 19:00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>2,119,881</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>357,854</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>357,854</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>2024-09-14 19:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2810,6 +2810,26 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2822,7 +2842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:H425"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -20463,6 +20483,174 @@
         </is>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2024-09-14 20:00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>397,957</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>1,107,507</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>397,957</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>2024-09-14 20:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2024-09-14 21:00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>1,366,035</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2,305,773</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>2,305,773</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>2024-09-14 21:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2024-09-14 22:00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>1,768,472</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2,285,708</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>2,285,708</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>2024-09-14 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-09-14 23:00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>877,217</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>628,837</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>877,217</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>2024-09-14 23:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -2831,6 +2831,123 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2842,7 +2959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H425"/>
+  <dimension ref="A1:H447"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -20651,6 +20768,930 @@
         </is>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2024-09-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>1,428,145</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>269,032</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>269,032</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>2024-09-15 00:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2024-09-15 01:00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>780,731</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>645,932</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>645,932</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>2024-09-15 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2024-09-15 02:00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>773,097</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>233,772</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>773,097</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>2024-09-15 02:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2024-09-15 03:00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>814,653</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>161,851</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>814,653</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>2024-09-15 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2024-09-15 04:00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>227,500</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>70,251</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>70,251</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>2024-09-15 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2024-09-15 05:00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>42,016</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>318,795</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>42,016</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>2024-09-15 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2024-09-15 06:00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>205,500</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>154,937</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>205,500</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>2024-09-15 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2024-09-15 07:00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>577,000</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>96,371</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>577,000</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>2024-09-15 07:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2024-09-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>794,852</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>342,882</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>794,852</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>2024-09-15 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2024-09-15 09:00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>791,706</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>1,217,143</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>791,706</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>2024-09-15 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2024-09-15 10:00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>641,398</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>1,045,796</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>641,398</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>2024-09-15 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2024-09-15 11:00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>1,029,952</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>2,118,518</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>2,118,518</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>2024-09-15 11:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2024-09-15 12:00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>1,916,497</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>2,042,939</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>1,916,497</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>2024-09-15 12:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2024-09-15 13:00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>1,900,393</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>528,560</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>1,900,393</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>2024-09-15 13:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2024-09-15 14:00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>788,585</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>1,510,518</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>788,585</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>2024-09-15 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2024-09-15 15:00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>1,262,924</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>997,417</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>1,262,924</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>2024-09-15 15:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2024-09-15 16:00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>3,795,377</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>2,845,672</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>2,845,672</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>2024-09-15 16:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2024-09-15 17:00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>429,454</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>1,681,050</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>1,681,050</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>2024-09-15 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2024-09-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>1,021,186</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>1,213,428</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>1,213,428</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>2024-09-15 18:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2024-09-15 19:00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>1,831,745</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>792,500</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>792,500</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>2024-09-15 19:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2024-09-15 20:00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>2,313,823</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>1,007,102</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>1,007,102</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>2024-09-15 20:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2024-09-15 21:00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>1,365,295</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>309,364</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>1,365,295</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>2024-09-15 21:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2947,6 +2947,11 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2959,7 +2964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H447"/>
+  <dimension ref="A1:H448"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -21692,6 +21697,48 @@
         </is>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2024-09-15 22:00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>872,116</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>739,404</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>739,404</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>2024-09-15 22:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -2952,6 +2952,103 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2964,7 +3061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H448"/>
+  <dimension ref="A1:H466"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -21739,6 +21836,762 @@
         </is>
       </c>
     </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2024-09-15 23:00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>1,487,849</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>1,775,484</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>1,487,849</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>2024-09-15 23:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>1,956,852</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>982,970</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>1,956,852</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2024-09-16 01:00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>688,291</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>623,473</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>688,291</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>2024-09-16 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2024-09-16 02:00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>406,528</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>500,437</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>500,437</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>2024-09-16 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2024-09-16 03:00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>244,000</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>346,332</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>244,000</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>2024-09-16 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2024-09-16 04:00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>93,749</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>189,925</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>189,925</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>2024-09-16 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2024-09-16 05:00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>241,900</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>118,593</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>241,900</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2024-09-16 05:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2024-09-16 06:00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>332,298</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>400,324</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>400,324</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>2024-09-16 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2024-09-16 07:00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>489,881</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>412,623</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>489,881</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>2024-09-16 07:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2024-09-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>270,064</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>302,430</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>302,430</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>2024-09-16 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2024-09-16 09:00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>443,911</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>739,602</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>443,911</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>2024-09-16 09:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2024-09-16 10:00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>1,300,383</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>432,354</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>432,354</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>2024-09-16 10:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2024-09-16 11:00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>1,782,826</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>730,694</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>432,354</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>2024-09-16 11:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>889,965</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>228,131</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>889,965</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2024-09-16 13:00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>761,764</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>2,918,016</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>2,918,016</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>2024-09-16 13:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>1,000,128</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>1,954,983</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>1,954,983</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>1,251,853</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>1,027,164</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>1,251,853</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>1,953,903</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>848,501</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>1,953,903</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3049,6 +3049,16 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3061,7 +3071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H466"/>
+  <dimension ref="A1:H468"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -22592,6 +22602,90 @@
         </is>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2024-09-16 17:00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>353,997</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>997,062</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>353,997</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>2024-09-16 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2024-09-16 18:00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>530,884</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>1,813,224</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>1,813,224</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>2024-09-16 18:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3059,6 +3059,16 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3071,7 +3081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H468"/>
+  <dimension ref="A1:H470"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -22686,6 +22696,90 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2024-09-16 19:00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>1,382,155</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>1,299,944</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>1,382,155</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>2024-09-16 19:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>493,845</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>1,462,863</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>1,462,863</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3069,6 +3069,11 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3081,7 +3086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H470"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -22780,6 +22785,48 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2024-09-16 21:00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>3,207,774</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>1,209,090</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>3,207,774</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>2024-09-16 21:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -3074,6 +3074,133 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3086,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -22827,6 +22954,1014 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>942,906</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>1,157,854</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>1,157,854</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2024-09-16 23:00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>2,428,002</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>518,328</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>2,428,002</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>2024-09-16 23:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2024-09-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>868,037</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>1,087,146</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>868,037</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2024-09-17 00:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2024-09-17 01:00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>538,312</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>555,115</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>538,312</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>2024-09-17 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2024-09-17 02:00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>252,061</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>180,046</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>180,046</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>2024-09-17 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2024-09-17 03:00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>212,384</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>49,840</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>212,384</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>2024-09-17 03:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2024-09-17 04:00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>1,074,099</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>42,222</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>1,074,099</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>2024-09-17 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2024-09-17 05:00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>34,982</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>254,269</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>34,982</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>2024-09-17 05:03:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2024-09-17 06:00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>125,727</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>1,241,927</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>125,727</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>2024-09-17 06:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2024-09-17 07:00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>213,573</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>837,573</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>213,573</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>2024-09-17 07:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2024-09-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>154,232</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>923,631</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>923,631</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>2024-09-17 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2024-09-17 09:00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>808,633</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>732,487</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>808,633</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>2024-09-17 09:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2024-09-17 10:00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>1,330,850</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>948,635</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>948,635</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>2024-09-17 10:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>1,811,111</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>651,439</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>1,811,111</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2024-09-17 12:00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>977,048</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>1,400,372</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>1,400,372</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>2024-09-17 12:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2024-09-17 13:00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>1,570,761</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>475,330</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>475,330</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>2024-09-17 13:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>894,733</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>389,923</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>389,923</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2024-09-17 15:00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>461,461</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>934,915</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>934,915</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>2024-09-17 15:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2024-09-17 16:00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>602,223</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>2,132,044</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>2,132,044</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>2024-09-17 16:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2024-09-17 17:00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>959,885</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>576,396</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>576,396</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2024-09-17 17:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2024-09-17 18:00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>2,184,160</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>2,272,836</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>2,184,160</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>2024-09-17 18:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>969,250</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>537,075</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>969,250</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>2,463,366</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>830,746</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>2,463,366</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2024-09-17 21:00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>946,625</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>875,010</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>875,010</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>2024-09-17 21:02:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -3201,6 +3201,113 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,7 +3320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H495"/>
+  <dimension ref="A1:H515"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -23962,6 +24069,846 @@
         </is>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2024-09-17 22:00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>2,375,114</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>4,297,964</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>4,297,964</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>2024-09-17 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>1,588,672</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>3,092,797</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>3,092,797</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2024-09-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>1,035,628</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>1,580,021</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>1,580,021</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>2024-09-18 00:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2024-09-18 01:00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>974,698</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>1,001,211</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>974,698</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>2024-09-18 01:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2024-09-18 02:00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>1,261,836</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>1,143,711</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>1,261,836</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>2024-09-18 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2024-09-18 03:00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>1,482,147</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>97,130</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>97,130</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>2024-09-18 03:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2024-09-18 04:00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>159,000</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>605,042</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>159,000</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>2024-09-18 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2024-09-18 05:00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>162,999</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>280,057</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>280,057</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>2024-09-18 05:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2024-09-18 06:00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>236,733</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>143,199</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>143,199</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>2024-09-18 06:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2024-09-18 07:00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>814,061</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>663,487</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>663,487</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2024-09-18 07:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2024-09-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>1,278,347</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>104,804</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>104,804</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>2024-09-18 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2024-09-18 09:00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>1,230,184</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>63,910</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>63,910</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>2024-09-18 09:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2024-09-18 10:00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>1,339,409</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>3,205,265</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>1,339,409</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>2024-09-18 10:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2024-09-18 11:00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>974,242</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>261,040</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>974,242</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>2024-09-18 11:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2024-09-18 12:00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>1,691,701</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>676,675</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>676,675</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>2024-09-18 12:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2024-09-18 13:00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>639,685</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>1,398,342</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>1,398,342</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>2024-09-18 13:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2024-09-18 14:00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>967,659</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>1,205,816</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>1,205,816</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>2024-09-18 14:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2024-09-18 15:00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>1,470,699</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>671,453</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>1,470,699</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>2024-09-18 15:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2024-09-18 16:00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>3,944,711</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>430,748</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>430,748</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2024-09-18 16:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2024-09-18 17:00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>2,983,567</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>684,261</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>684,261</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>2024-09-18 17:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -3308,6 +3308,220 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3320,7 +3534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H515"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -24909,6 +25123,1686 @@
         </is>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2024-09-18 18:00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>971,284</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>2,596,632</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2,596,632</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>2024-09-18 18:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2024-09-18 19:00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>702,026</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>1,023,152</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>702,026</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>2024-09-18 19:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2024-09-18 20:00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>3,288,951</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>606,072</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>606,072</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>2024-09-18 20:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2024-09-18 21:00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>1,935,934</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>772,826</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>772,826</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>2024-09-18 21:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2024-09-18 22:00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>1,346,698</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>2,853,961</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2,853,961</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>2024-09-18 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2024-09-18 23:00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>2,331,229</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>1,479,831</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>1,479,831</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>2024-09-18 23:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2024-09-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>1,841,435</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>930,415</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>930,415</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>2024-09-19 00:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2024-09-19 01:00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>815,877</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>404,337</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>815,877</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>2024-09-19 01:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2024-09-19 02:00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>530,847</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>626,920</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>530,847</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>2024-09-19 02:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2024-09-19 03:00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>311,699</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>107,167</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>107,167</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>2024-09-19 03:02:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2024-09-19 04:00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>120,244</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>117,567</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>117,567</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>2024-09-19 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2024-09-19 05:00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>38,999</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>53,251</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>53,251</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>2024-09-19 05:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2024-09-19 06:00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>201,982</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>757,638</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>757,638</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>2024-09-19 06:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2024-09-19 07:00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>436,483</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>1,131,680</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>1,131,680</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>2024-09-19 07:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2024-09-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>1,095,302</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>297,013</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>297,013</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>2024-09-19 08:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2024-09-19 09:00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>991,486</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>1,147,938</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>991,486</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>2024-09-19 09:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2024-09-19 10:00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>439,193</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>478,318</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>478,318</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>2024-09-19 10:02:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2024-09-19 11:00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>1,792,553</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>1,540,109</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>1,792,553</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>2024-09-19 11:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2024-09-19 12:00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>742,309</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>2,351,322</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>742,309</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>2024-09-19 12:02:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2024-09-19 13:00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>865,887</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>1,316,650</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>1,316,650</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>2024-09-19 13:02:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2024-09-19 14:00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>488,518</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>2,724,634</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>488,518</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>2024-09-19 14:02:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-09-19 15:00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>933,388</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>507,210</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>507,210</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>2024-09-19 15:02:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2024-09-19 16:00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>644,459</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>2024-09-19 16:05:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2024-09-19 19:00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>10,800</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>331,692</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>2024-09-19 19:07:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-09-19 21:00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>658,951</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>2,185,359</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>2,185,359</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>2024-09-19 21:04:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-09-19 23:00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>983,963</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>1,317,215</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>983,963</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>2024-09-19 23:03:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-09-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>816,285</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>2024-09-20 00:03:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2024-09-20 01:00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>4,520</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>1,056,790</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>2024-09-20 01:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2024-09-20 02:00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>378,338</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>367,381</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>378,338</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>2024-09-20 02:04:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2024-09-20 04:00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>269,860</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>2024-09-20 04:04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2024-09-20 05:00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>54,000</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>2024-09-20 05:03:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2024-09-20 06:00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>180,000</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>117,270</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>2024-09-20 06:04:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2024-09-20 07:00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>756,451</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>838,255</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>838,255</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>2024-09-20 07:03:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2024-09-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>404,916</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>2024-09-20 08:05:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2024-09-20 10:00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>776,709</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>330,629</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>330,629</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>2024-09-20 10:05:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2024-09-20 12:00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>3,039,500</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>1,117,852</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>3,039,500</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>2024-09-20 12:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2024-09-20 13:00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>148,954</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>1,795,239</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>2024-09-20 13:03:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2024-09-20 14:00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>1,043,435</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>487,869</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>1,043,435</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>2024-09-20 14:03:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>741,278</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:04:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2024-09-20 16:00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>1,461,747</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>2024-09-20 16:03:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3522,6 +3522,26 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3534,7 +3554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:H559"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -26803,6 +26823,174 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2024-09-20 17:00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>1,745,234</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>883,783</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>1,745,234</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>2024-09-20 17:03:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2024-09-20 18:00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>403,158</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>2,923,148</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>2,923,148</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>2024-09-20 18:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2024-09-20 19:00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>350,203</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>2,250,694</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>2,250,694</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>2024-09-20 19:03:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2024-09-20 20:00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>529,097</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>2024-09-20 20:05:20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -3542,6 +3542,68 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3554,7 +3616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H559"/>
+  <dimension ref="A1:H570"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -26991,6 +27053,468 @@
         </is>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2024-09-20 22:00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>2,456,071</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>466,453</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>466,453</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2024-09-20 22:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2024-09-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>422,217</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>282,767</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>282,767</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>2024-09-21 00:03:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2024-09-21 02:00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>390,840</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>244,410</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>244,410</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>2024-09-21 02:03:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2024-09-21 04:00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>217,577</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>32,370</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>32,370</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>2024-09-21 04:03:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2024-09-21 05:00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>30,350</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>75,371</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>30,350</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>2024-09-21 05:03:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2024-09-21 07:00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>538,796</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>196,681</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>196,681</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>2024-09-21 07:03:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2024-09-21 09:00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>450,742</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>659,126</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>659,126</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>2024-09-21 09:03:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2024-09-21 11:00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>311,554</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>587,232</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>587,232</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>2024-09-21 11:05:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2024-09-21 13:00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>3,618,724</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>556,870</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>3,618,724</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>2024-09-21 13:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2024-09-21 14:00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>1,456,050</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>1,198,320</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>1,198,320</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>2024-09-21 14:03:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2024-09-21 16:00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>1,357,634</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>555,338</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>1,357,634</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>2024-09-21 16:04:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
